--- a/evaluation/dataset_cmp/results.xlsx
+++ b/evaluation/dataset_cmp/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quantum-pattern-detector\evaluation\dataset_cmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95837C72-0F4A-49F1-8AED-A6171D707E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D04ED-055F-48D0-B9D3-5AA140D23CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF62EF1E-CC34-42F4-A40A-B66B5E57A642}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
   <si>
     <t>Uniform Superposition</t>
   </si>
@@ -261,13 +261,29 @@
   </si>
   <si>
     <t>openqasm_None_ric2k1_qsyn.lab_benchmark.qft.qft_7.qasm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✔ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +295,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,8 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -760,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2D1A75-D856-4912-AB9C-6B5DC5FD636B}">
-  <dimension ref="A1:K435"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -847,17 +869,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -874,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -905,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>12</v>
@@ -929,10 +949,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -976,10 +996,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1004,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
@@ -1012,7 +1032,7 @@
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1029,10 +1049,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -1054,14 +1074,14 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1101,10 +1121,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
@@ -1129,7 +1149,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1151,10 +1171,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>12</v>
@@ -1198,10 +1218,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -1223,14 +1243,14 @@
         <v>28</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1247,10 +1267,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="16" t="s">
@@ -1276,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="5"/>
@@ -1299,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -1310,7 +1330,7 @@
     <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="18" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1327,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -1353,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
@@ -2441,1264 +2461,36 @@
       </c>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>57</v>
       </c>
       <c r="C133">
         <v>25</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D133">
         <v>2</v>
       </c>
-      <c r="E133" s="21">
+      <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133">
         <v>4</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133">
         <v>17</v>
       </c>
-      <c r="H133" s="21">
-        <v>18</v>
-      </c>
-      <c r="I133" s="21">
+      <c r="H133">
+        <v>17</v>
+      </c>
+      <c r="I133">
         <v>2</v>
       </c>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>63</v>
       </c>
-      <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="20"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="20"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="20"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="20"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="20"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="20"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="20"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="20"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="20"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="20"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="20"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="20"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="20"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="20"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="20"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="20"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="20"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="20"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="20"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="20"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="20"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="20"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="20"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="20"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="20"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="20"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="20"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="20"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="20"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="20"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I201" s="20"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I202" s="20"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I203" s="20"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I205" s="20"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I207" s="20"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I208" s="20"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I210" s="20"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I211" s="20"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I212" s="20"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I213" s="20"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I214" s="20"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I215" s="20"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I216" s="20"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I218" s="20"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I219" s="20"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I220" s="20"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I221" s="20"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I222" s="20"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I223" s="20"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I224" s="20"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I225" s="20"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I226" s="20"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I228" s="20"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I230" s="20"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I231" s="20"/>
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I232" s="20"/>
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I233" s="20"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I234" s="20"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I235" s="20"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I236" s="20"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I241" s="20"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I242" s="20"/>
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I243" s="20"/>
-      <c r="J243" s="20"/>
-    </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I244" s="20"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I245" s="20"/>
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I246" s="20"/>
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I247" s="20"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I252" s="20"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I253" s="20"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I254" s="20"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I255" s="20"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I256" s="20"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I257" s="20"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I258" s="20"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I259" s="20"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I260" s="20"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I261" s="20"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I262" s="20"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I263" s="20"/>
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I264" s="20"/>
-      <c r="J264" s="20"/>
-    </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I266" s="20"/>
-      <c r="J266" s="20"/>
-    </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I267" s="20"/>
-      <c r="J267" s="20"/>
-    </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I268" s="20"/>
-      <c r="J268" s="20"/>
-    </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I269" s="20"/>
-      <c r="J269" s="20"/>
-    </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I270" s="20"/>
-      <c r="J270" s="20"/>
-    </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I271" s="20"/>
-      <c r="J271" s="20"/>
-    </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I272" s="20"/>
-      <c r="J272" s="20"/>
-    </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I273" s="20"/>
-      <c r="J273" s="20"/>
-    </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I274" s="20"/>
-      <c r="J274" s="20"/>
-    </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I275" s="20"/>
-      <c r="J275" s="20"/>
-    </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I276" s="20"/>
-      <c r="J276" s="20"/>
-    </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I277" s="20"/>
-      <c r="J277" s="20"/>
-    </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I278" s="20"/>
-      <c r="J278" s="20"/>
-    </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I279" s="20"/>
-      <c r="J279" s="20"/>
-    </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I280" s="20"/>
-      <c r="J280" s="20"/>
-    </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I281" s="20"/>
-      <c r="J281" s="20"/>
-    </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I282" s="20"/>
-      <c r="J282" s="20"/>
-    </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I283" s="20"/>
-      <c r="J283" s="20"/>
-    </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I284" s="20"/>
-      <c r="J284" s="20"/>
-    </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I285" s="20"/>
-      <c r="J285" s="20"/>
-    </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I286" s="20"/>
-      <c r="J286" s="20"/>
-    </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I287" s="20"/>
-      <c r="J287" s="20"/>
-    </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I288" s="20"/>
-      <c r="J288" s="20"/>
-    </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I289" s="20"/>
-      <c r="J289" s="20"/>
-    </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I290" s="20"/>
-      <c r="J290" s="20"/>
-    </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I291" s="20"/>
-      <c r="J291" s="20"/>
-    </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I292" s="20"/>
-      <c r="J292" s="20"/>
-    </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I293" s="20"/>
-      <c r="J293" s="20"/>
-    </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I294" s="20"/>
-      <c r="J294" s="20"/>
-    </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I295" s="20"/>
-      <c r="J295" s="20"/>
-    </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I296" s="20"/>
-      <c r="J296" s="20"/>
-    </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I297" s="20"/>
-      <c r="J297" s="20"/>
-    </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I298" s="20"/>
-      <c r="J298" s="20"/>
-    </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I299" s="20"/>
-      <c r="J299" s="20"/>
-    </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I300" s="20"/>
-      <c r="J300" s="20"/>
-    </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I301" s="20"/>
-      <c r="J301" s="20"/>
-    </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I302" s="20"/>
-      <c r="J302" s="20"/>
-    </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I303" s="20"/>
-      <c r="J303" s="20"/>
-    </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I304" s="20"/>
-      <c r="J304" s="20"/>
-    </row>
-    <row r="305" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I305" s="20"/>
-      <c r="J305" s="20"/>
-    </row>
-    <row r="306" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I306" s="20"/>
-      <c r="J306" s="20"/>
-    </row>
-    <row r="307" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I307" s="20"/>
-      <c r="J307" s="20"/>
-    </row>
-    <row r="308" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I308" s="20"/>
-      <c r="J308" s="20"/>
-    </row>
-    <row r="309" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I309" s="20"/>
-      <c r="J309" s="20"/>
-    </row>
-    <row r="310" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I310" s="20"/>
-      <c r="J310" s="20"/>
-    </row>
-    <row r="311" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I311" s="20"/>
-      <c r="J311" s="20"/>
-    </row>
-    <row r="312" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I312" s="20"/>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I313" s="20"/>
-      <c r="J313" s="20"/>
-    </row>
-    <row r="314" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I314" s="20"/>
-      <c r="J314" s="20"/>
-    </row>
-    <row r="315" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I315" s="20"/>
-      <c r="J315" s="20"/>
-    </row>
-    <row r="316" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I316" s="20"/>
-      <c r="J316" s="20"/>
-    </row>
-    <row r="317" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I317" s="20"/>
-      <c r="J317" s="20"/>
-    </row>
-    <row r="318" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I318" s="20"/>
-      <c r="J318" s="20"/>
-    </row>
-    <row r="319" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I319" s="20"/>
-      <c r="J319" s="20"/>
-    </row>
-    <row r="320" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I320" s="20"/>
-      <c r="J320" s="20"/>
-    </row>
-    <row r="321" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I321" s="20"/>
-      <c r="J321" s="20"/>
-    </row>
-    <row r="322" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I322" s="20"/>
-      <c r="J322" s="20"/>
-    </row>
-    <row r="323" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I323" s="20"/>
-      <c r="J323" s="20"/>
-    </row>
-    <row r="324" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I324" s="20"/>
-      <c r="J324" s="20"/>
-    </row>
-    <row r="325" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I325" s="20"/>
-      <c r="J325" s="20"/>
-    </row>
-    <row r="326" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I326" s="20"/>
-      <c r="J326" s="20"/>
-    </row>
-    <row r="327" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I327" s="20"/>
-      <c r="J327" s="20"/>
-    </row>
-    <row r="328" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I328" s="20"/>
-      <c r="J328" s="20"/>
-    </row>
-    <row r="329" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I329" s="20"/>
-      <c r="J329" s="20"/>
-    </row>
-    <row r="330" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I330" s="20"/>
-      <c r="J330" s="20"/>
-    </row>
-    <row r="331" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I331" s="20"/>
-      <c r="J331" s="20"/>
-    </row>
-    <row r="332" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I332" s="20"/>
-      <c r="J332" s="20"/>
-    </row>
-    <row r="333" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I333" s="20"/>
-      <c r="J333" s="20"/>
-    </row>
-    <row r="334" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I334" s="20"/>
-      <c r="J334" s="20"/>
-    </row>
-    <row r="335" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I335" s="20"/>
-      <c r="J335" s="20"/>
-    </row>
-    <row r="336" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I336" s="20"/>
-      <c r="J336" s="20"/>
-    </row>
-    <row r="337" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I337" s="20"/>
-      <c r="J337" s="20"/>
-    </row>
-    <row r="338" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I338" s="20"/>
-      <c r="J338" s="20"/>
-    </row>
-    <row r="339" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I339" s="20"/>
-      <c r="J339" s="20"/>
-    </row>
-    <row r="340" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I340" s="20"/>
-      <c r="J340" s="20"/>
-    </row>
-    <row r="341" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I341" s="20"/>
-      <c r="J341" s="20"/>
-    </row>
-    <row r="342" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I342" s="20"/>
-      <c r="J342" s="20"/>
-    </row>
-    <row r="343" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I343" s="20"/>
-      <c r="J343" s="20"/>
-    </row>
-    <row r="344" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I344" s="20"/>
-      <c r="J344" s="20"/>
-    </row>
-    <row r="345" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I345" s="20"/>
-      <c r="J345" s="20"/>
-    </row>
-    <row r="346" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I346" s="20"/>
-      <c r="J346" s="20"/>
-    </row>
-    <row r="347" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I347" s="20"/>
-      <c r="J347" s="20"/>
-    </row>
-    <row r="348" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I348" s="20"/>
-      <c r="J348" s="20"/>
-    </row>
-    <row r="349" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I349" s="20"/>
-      <c r="J349" s="20"/>
-    </row>
-    <row r="350" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I350" s="20"/>
-      <c r="J350" s="20"/>
-    </row>
-    <row r="351" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I351" s="20"/>
-      <c r="J351" s="20"/>
-    </row>
-    <row r="352" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I352" s="20"/>
-      <c r="J352" s="20"/>
-    </row>
-    <row r="353" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I353" s="20"/>
-      <c r="J353" s="20"/>
-    </row>
-    <row r="354" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I354" s="20"/>
-      <c r="J354" s="20"/>
-    </row>
-    <row r="355" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I355" s="20"/>
-      <c r="J355" s="20"/>
-    </row>
-    <row r="356" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I356" s="20"/>
-      <c r="J356" s="20"/>
-    </row>
-    <row r="357" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I357" s="20"/>
-      <c r="J357" s="20"/>
-    </row>
-    <row r="358" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I358" s="20"/>
-      <c r="J358" s="20"/>
-    </row>
-    <row r="359" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I359" s="20"/>
-      <c r="J359" s="20"/>
-    </row>
-    <row r="360" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I360" s="20"/>
-      <c r="J360" s="20"/>
-    </row>
-    <row r="361" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I361" s="20"/>
-      <c r="J361" s="20"/>
-    </row>
-    <row r="362" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I362" s="20"/>
-      <c r="J362" s="20"/>
-    </row>
-    <row r="363" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I363" s="20"/>
-      <c r="J363" s="20"/>
-    </row>
-    <row r="364" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I364" s="20"/>
-      <c r="J364" s="20"/>
-    </row>
-    <row r="365" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I365" s="20"/>
-      <c r="J365" s="20"/>
-    </row>
-    <row r="366" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I366" s="20"/>
-      <c r="J366" s="20"/>
-    </row>
-    <row r="367" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I367" s="20"/>
-      <c r="J367" s="20"/>
-    </row>
-    <row r="368" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I368" s="20"/>
-      <c r="J368" s="20"/>
-    </row>
-    <row r="369" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I369" s="20"/>
-      <c r="J369" s="20"/>
-    </row>
-    <row r="370" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I370" s="20"/>
-      <c r="J370" s="20"/>
-    </row>
-    <row r="371" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I371" s="20"/>
-      <c r="J371" s="20"/>
-    </row>
-    <row r="372" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I372" s="20"/>
-      <c r="J372" s="20"/>
-    </row>
-    <row r="373" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I373" s="20"/>
-      <c r="J373" s="20"/>
-    </row>
-    <row r="374" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I374" s="20"/>
-      <c r="J374" s="20"/>
-    </row>
-    <row r="375" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I375" s="20"/>
-      <c r="J375" s="20"/>
-    </row>
-    <row r="376" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I376" s="20"/>
-      <c r="J376" s="20"/>
-    </row>
-    <row r="377" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I377" s="20"/>
-      <c r="J377" s="20"/>
-    </row>
-    <row r="378" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I378" s="20"/>
-      <c r="J378" s="20"/>
-    </row>
-    <row r="379" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I379" s="20"/>
-      <c r="J379" s="20"/>
-    </row>
-    <row r="380" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I380" s="20"/>
-      <c r="J380" s="20"/>
-    </row>
-    <row r="381" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I381" s="20"/>
-      <c r="J381" s="20"/>
-    </row>
-    <row r="382" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I382" s="20"/>
-      <c r="J382" s="20"/>
-    </row>
-    <row r="383" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I383" s="20"/>
-      <c r="J383" s="20"/>
-    </row>
-    <row r="384" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I384" s="20"/>
-      <c r="J384" s="20"/>
-    </row>
-    <row r="385" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I385" s="20"/>
-      <c r="J385" s="20"/>
-    </row>
-    <row r="386" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I386" s="20"/>
-      <c r="J386" s="20"/>
-    </row>
-    <row r="387" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I387" s="20"/>
-      <c r="J387" s="20"/>
-    </row>
-    <row r="388" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I388" s="20"/>
-      <c r="J388" s="20"/>
-    </row>
-    <row r="389" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I389" s="20"/>
-      <c r="J389" s="20"/>
-    </row>
-    <row r="390" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I390" s="20"/>
-      <c r="J390" s="20"/>
-    </row>
-    <row r="391" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I391" s="20"/>
-      <c r="J391" s="20"/>
-    </row>
-    <row r="392" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I392" s="20"/>
-      <c r="J392" s="20"/>
-    </row>
-    <row r="393" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I393" s="20"/>
-      <c r="J393" s="20"/>
-    </row>
-    <row r="394" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I394" s="20"/>
-      <c r="J394" s="20"/>
-    </row>
-    <row r="395" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I395" s="20"/>
-      <c r="J395" s="20"/>
-    </row>
-    <row r="396" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I396" s="20"/>
-      <c r="J396" s="20"/>
-    </row>
-    <row r="397" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I397" s="20"/>
-      <c r="J397" s="20"/>
-    </row>
-    <row r="398" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I398" s="20"/>
-      <c r="J398" s="20"/>
-    </row>
-    <row r="399" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I399" s="20"/>
-      <c r="J399" s="20"/>
-    </row>
-    <row r="400" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I400" s="20"/>
-      <c r="J400" s="20"/>
-    </row>
-    <row r="401" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I401" s="20"/>
-      <c r="J401" s="20"/>
-    </row>
-    <row r="402" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I402" s="20"/>
-      <c r="J402" s="20"/>
-    </row>
-    <row r="403" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I403" s="20"/>
-      <c r="J403" s="20"/>
-    </row>
-    <row r="404" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I404" s="20"/>
-      <c r="J404" s="20"/>
-    </row>
-    <row r="405" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I405" s="20"/>
-      <c r="J405" s="20"/>
-    </row>
-    <row r="406" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I406" s="20"/>
-      <c r="J406" s="20"/>
-    </row>
-    <row r="407" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I407" s="20"/>
-      <c r="J407" s="20"/>
-    </row>
-    <row r="408" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I408" s="20"/>
-      <c r="J408" s="20"/>
-    </row>
-    <row r="409" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I409" s="20"/>
-      <c r="J409" s="20"/>
-    </row>
-    <row r="410" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I410" s="20"/>
-      <c r="J410" s="20"/>
-    </row>
-    <row r="411" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I411" s="20"/>
-      <c r="J411" s="20"/>
-    </row>
-    <row r="412" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I412" s="20"/>
-      <c r="J412" s="20"/>
-    </row>
-    <row r="413" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I413" s="20"/>
-      <c r="J413" s="20"/>
-    </row>
-    <row r="414" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I414" s="20"/>
-      <c r="J414" s="20"/>
-    </row>
-    <row r="415" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I415" s="20"/>
-      <c r="J415" s="20"/>
-    </row>
-    <row r="416" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I416" s="20"/>
-      <c r="J416" s="20"/>
-    </row>
-    <row r="417" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I417" s="20"/>
-      <c r="J417" s="20"/>
-    </row>
-    <row r="418" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I418" s="20"/>
-      <c r="J418" s="20"/>
-    </row>
-    <row r="419" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I419" s="20"/>
-      <c r="J419" s="20"/>
-    </row>
-    <row r="420" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I420" s="20"/>
-      <c r="J420" s="20"/>
-    </row>
-    <row r="421" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I421" s="20"/>
-      <c r="J421" s="20"/>
-    </row>
-    <row r="422" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I422" s="20"/>
-      <c r="J422" s="20"/>
-    </row>
-    <row r="423" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I423" s="20"/>
-      <c r="J423" s="20"/>
-    </row>
-    <row r="424" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I424" s="20"/>
-      <c r="J424" s="20"/>
-    </row>
-    <row r="425" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I425" s="20"/>
-      <c r="J425" s="20"/>
-    </row>
-    <row r="426" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I426" s="20"/>
-      <c r="J426" s="20"/>
-    </row>
-    <row r="427" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I427" s="20"/>
-      <c r="J427" s="20"/>
-    </row>
-    <row r="428" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I428" s="20"/>
-      <c r="J428" s="20"/>
-    </row>
-    <row r="429" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I429" s="20"/>
-      <c r="J429" s="20"/>
-    </row>
-    <row r="430" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I430" s="20"/>
-      <c r="J430" s="20"/>
-    </row>
-    <row r="431" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I431" s="20"/>
-      <c r="J431" s="20"/>
-    </row>
-    <row r="432" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I432" s="20"/>
-      <c r="J432" s="20"/>
-    </row>
-    <row r="433" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I433" s="20"/>
-      <c r="J433" s="20"/>
-    </row>
-    <row r="434" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I434" s="20"/>
-      <c r="J434" s="20"/>
-    </row>
-    <row r="435" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I435" s="20"/>
-      <c r="J435" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
